--- a/catalog/items.xlsx
+++ b/catalog/items.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu\home\shmibz\dev\shmibblez\catalog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{298A2F2D-0838-4B4A-873A-E5A12FFC31DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C91A947E-72F5-405A-A856-E29C7334DC42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14620" xr2:uid="{A345BBCA-F23D-4B95-B3E7-DF44B574C4D4}"/>
+    <workbookView xWindow="1520" yWindow="1520" windowWidth="19200" windowHeight="10510" xr2:uid="{A345BBCA-F23D-4B95-B3E7-DF44B574C4D4}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="items" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,18 +34,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="9">
-  <si>
-    <t>item_no</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="9">
   <si>
     <t>for_sale</t>
-  </si>
-  <si>
-    <t>price_cop</t>
-  </si>
-  <si>
-    <t>price_usd</t>
   </si>
   <si>
     <t>tags</t>
@@ -54,13 +45,22 @@
     <t>img_urls</t>
   </si>
   <si>
-    <t>no_purchases</t>
-  </si>
-  <si>
     <t>["t-shirt","black","optical illusion","pattern"]</t>
   </si>
   <si>
     <t>["https://res.cloudinary.com/shmibblez/image/upload/v1642618044/samples/food/pot-mussels.jpg","https://res.cloudinary.com/shmibblez/image/upload/v1642618044/samples/food/fish-vegetables.jpg"]</t>
+  </si>
+  <si>
+    <t>_id</t>
+  </si>
+  <si>
+    <t>times_acquired</t>
+  </si>
+  <si>
+    <t>countries</t>
+  </si>
+  <si>
+    <t>{"col":{"available":{"total":0,"s":0,"m":0,"l":0},"price":40000.0,"ccy":"cop"},"usa":{"available":{"total":0,"s":0,"m":0,"l":0},"price":25.0,"ccy":"usd"}}</t>
   </si>
 </sst>
 </file>
@@ -412,476 +412,417 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9169764C-ED71-446B-9950-EF513CE5D64D}">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="C2" sqref="C2:C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="5" max="5" width="8.90625" customWidth="1"/>
-    <col min="6" max="6" width="8.7265625" customWidth="1"/>
-    <col min="7" max="7" width="12.90625" customWidth="1"/>
+    <col min="3" max="3" width="8.90625" customWidth="1"/>
+    <col min="4" max="4" width="8.7265625" customWidth="1"/>
+    <col min="5" max="5" width="9.26953125" customWidth="1"/>
+    <col min="6" max="6" width="13.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="b">
         <v>1</v>
       </c>
-      <c r="C2">
-        <v>25</v>
-      </c>
-      <c r="D2">
-        <v>40000</v>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="b">
         <v>1</v>
       </c>
-      <c r="C3">
-        <v>25</v>
-      </c>
-      <c r="D3">
-        <v>40000</v>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
       </c>
       <c r="E3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="b">
         <v>1</v>
       </c>
-      <c r="C4">
-        <v>25</v>
-      </c>
-      <c r="D4">
-        <v>40000</v>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>4</v>
       </c>
       <c r="E4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="b">
         <v>1</v>
       </c>
-      <c r="C5">
-        <v>25</v>
-      </c>
-      <c r="D5">
-        <v>40000</v>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" t="s">
+        <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="b">
         <v>1</v>
       </c>
-      <c r="C6">
-        <v>25</v>
-      </c>
-      <c r="D6">
-        <v>40000</v>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" t="s">
+        <v>4</v>
       </c>
       <c r="E6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="b">
         <v>0</v>
       </c>
-      <c r="C7">
-        <v>25</v>
-      </c>
-      <c r="D7">
-        <v>40000</v>
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" t="s">
+        <v>4</v>
       </c>
       <c r="E7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="b">
         <v>0</v>
       </c>
-      <c r="C8">
-        <v>25</v>
-      </c>
-      <c r="D8">
-        <v>40000</v>
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" t="s">
+        <v>4</v>
       </c>
       <c r="E8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" t="s">
-        <v>7</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="b">
         <v>0</v>
       </c>
-      <c r="C9">
-        <v>25</v>
-      </c>
-      <c r="D9">
-        <v>40000</v>
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" t="s">
+        <v>4</v>
       </c>
       <c r="E9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F9" t="s">
-        <v>7</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="b">
         <v>0</v>
       </c>
-      <c r="C10">
-        <v>25</v>
-      </c>
-      <c r="D10">
-        <v>40000</v>
+      <c r="C10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" t="s">
+        <v>4</v>
       </c>
       <c r="E10" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10" t="s">
-        <v>7</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="b">
         <v>0</v>
       </c>
-      <c r="C11">
-        <v>25</v>
-      </c>
-      <c r="D11">
-        <v>40000</v>
+      <c r="C11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" t="s">
+        <v>4</v>
       </c>
       <c r="E11" t="s">
-        <v>8</v>
-      </c>
-      <c r="F11" t="s">
-        <v>7</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="b">
         <v>0</v>
       </c>
-      <c r="C12">
-        <v>25</v>
-      </c>
-      <c r="D12">
-        <v>40000</v>
+      <c r="C12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" t="s">
+        <v>4</v>
       </c>
       <c r="E12" t="s">
-        <v>8</v>
-      </c>
-      <c r="F12" t="s">
-        <v>7</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="b">
         <v>0</v>
       </c>
-      <c r="C13">
-        <v>25</v>
-      </c>
-      <c r="D13">
-        <v>40000</v>
+      <c r="C13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" t="s">
+        <v>4</v>
       </c>
       <c r="E13" t="s">
-        <v>8</v>
-      </c>
-      <c r="F13" t="s">
-        <v>7</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="b">
         <v>0</v>
       </c>
-      <c r="C14">
-        <v>25</v>
-      </c>
-      <c r="D14">
-        <v>40000</v>
+      <c r="C14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" t="s">
+        <v>4</v>
       </c>
       <c r="E14" t="s">
-        <v>8</v>
-      </c>
-      <c r="F14" t="s">
-        <v>7</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="b">
         <v>0</v>
       </c>
-      <c r="C15">
-        <v>25</v>
-      </c>
-      <c r="D15">
-        <v>40000</v>
+      <c r="C15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" t="s">
+        <v>4</v>
       </c>
       <c r="E15" t="s">
-        <v>8</v>
-      </c>
-      <c r="F15" t="s">
-        <v>7</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="b">
         <v>0</v>
       </c>
-      <c r="C16">
-        <v>25</v>
-      </c>
-      <c r="D16">
-        <v>40000</v>
+      <c r="C16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" t="s">
+        <v>4</v>
       </c>
       <c r="E16" t="s">
-        <v>8</v>
-      </c>
-      <c r="F16" t="s">
-        <v>7</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="b">
         <v>0</v>
       </c>
-      <c r="C17">
-        <v>25</v>
-      </c>
-      <c r="D17">
-        <v>40000</v>
+      <c r="C17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" t="s">
+        <v>4</v>
       </c>
       <c r="E17" t="s">
-        <v>8</v>
-      </c>
-      <c r="F17" t="s">
-        <v>7</v>
-      </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="b">
         <v>0</v>
       </c>
-      <c r="C18">
-        <v>25</v>
-      </c>
-      <c r="D18">
-        <v>40000</v>
+      <c r="C18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" t="s">
+        <v>4</v>
       </c>
       <c r="E18" t="s">
-        <v>8</v>
-      </c>
-      <c r="F18" t="s">
-        <v>7</v>
-      </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="b">
         <v>0</v>
       </c>
-      <c r="C19">
-        <v>25</v>
-      </c>
-      <c r="D19">
-        <v>40000</v>
+      <c r="C19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" t="s">
+        <v>4</v>
       </c>
       <c r="E19" t="s">
-        <v>8</v>
-      </c>
-      <c r="F19" t="s">
-        <v>7</v>
-      </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="b">
         <v>0</v>
       </c>
-      <c r="C20">
-        <v>25</v>
-      </c>
-      <c r="D20">
-        <v>40000</v>
+      <c r="C20" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" t="s">
+        <v>4</v>
       </c>
       <c r="E20" t="s">
-        <v>8</v>
-      </c>
-      <c r="F20" t="s">
-        <v>7</v>
-      </c>
-      <c r="G20">
+        <v>3</v>
+      </c>
+      <c r="F20">
         <v>0</v>
       </c>
     </row>

--- a/catalog/items.xlsx
+++ b/catalog/items.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu\home\shmibz\dev\shmibblez\catalog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C91A947E-72F5-405A-A856-E29C7334DC42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3010F3A-A0D6-4AF2-A306-294B7FA77BEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1520" yWindow="1520" windowWidth="19200" windowHeight="10510" xr2:uid="{A345BBCA-F23D-4B95-B3E7-DF44B574C4D4}"/>
+    <workbookView xWindow="680" yWindow="2680" windowWidth="19200" windowHeight="10510" xr2:uid="{A345BBCA-F23D-4B95-B3E7-DF44B574C4D4}"/>
   </bookViews>
   <sheets>
     <sheet name="items" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="10">
   <si>
     <t>for_sale</t>
   </si>
@@ -60,7 +60,10 @@
     <t>countries</t>
   </si>
   <si>
-    <t>{"col":{"available":{"total":0,"s":0,"m":0,"l":0},"price":40000.0,"ccy":"cop"},"usa":{"available":{"total":0,"s":0,"m":0,"l":0},"price":25.0,"ccy":"usd"}}</t>
+    <t>{"col":{"available":{"red":{"s":0,"m":0,"l":0,"t":0},"black":{"s":0,"m":0,"l":0,"t":0}},"price":40000.0,"ccy":"cop"},"usa":{"available":{"red":{"s":0,"m":0,"l":0,"t":0},"black":{"s":0,"m":0,"l":0,"t":0}},"price":20,"ccy":"usd"}}</t>
+  </si>
+  <si>
+    <t>{"col":{"red":{"s":0,"m":0,"l":0,"t":0},"black":{"s":0,"m":0,"l":0,"t":0}},"usa":{"red":{"s":0,"m":0,"l":0,"t":0},"black":{"s":0,"m":0,"l":0,"t":0}}}</t>
   </si>
 </sst>
 </file>
@@ -96,8 +99,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -414,416 +424,416 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9169764C-ED71-446B-9950-EF513CE5D64D}">
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C20"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="8.90625" customWidth="1"/>
-    <col min="4" max="4" width="8.7265625" customWidth="1"/>
-    <col min="5" max="5" width="9.26953125" customWidth="1"/>
-    <col min="6" max="6" width="13.6328125" customWidth="1"/>
+    <col min="3" max="3" width="47.453125" customWidth="1"/>
+    <col min="4" max="4" width="8.7265625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="9.26953125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="33.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2">
+    <row r="2" spans="1:6" ht="58" x14ac:dyDescent="0.35">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" t="b">
+      <c r="B2" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3">
+      <c r="C2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="58" x14ac:dyDescent="0.35">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" t="b">
+      <c r="B3" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="b">
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="58" x14ac:dyDescent="0.35">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="b">
+      <c r="C4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="58" x14ac:dyDescent="0.35">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="C5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6">
+      <c r="C5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="58" x14ac:dyDescent="0.35">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" t="b">
+      <c r="B6" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="C6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7">
+      <c r="C6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="58" x14ac:dyDescent="0.35">
+      <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" t="b">
-        <v>0</v>
-      </c>
-      <c r="C7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E7" t="s">
-        <v>3</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8">
+      <c r="B7" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="58" x14ac:dyDescent="0.35">
+      <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" t="b">
-        <v>0</v>
-      </c>
-      <c r="C8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E8" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="b">
-        <v>0</v>
-      </c>
-      <c r="C9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" t="s">
-        <v>4</v>
-      </c>
-      <c r="E9" t="s">
-        <v>3</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" t="b">
-        <v>0</v>
-      </c>
-      <c r="C10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" t="s">
-        <v>4</v>
-      </c>
-      <c r="E10" t="s">
-        <v>3</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11">
+      <c r="B8" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="58" x14ac:dyDescent="0.35">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="58" x14ac:dyDescent="0.35">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="58" x14ac:dyDescent="0.35">
+      <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" t="b">
-        <v>0</v>
-      </c>
-      <c r="C11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" t="s">
-        <v>4</v>
-      </c>
-      <c r="E11" t="s">
-        <v>3</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12">
+      <c r="B11" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="58" x14ac:dyDescent="0.35">
+      <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" t="b">
-        <v>0</v>
-      </c>
-      <c r="C12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" t="s">
-        <v>4</v>
-      </c>
-      <c r="E12" t="s">
-        <v>3</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13">
+      <c r="B12" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="58" x14ac:dyDescent="0.35">
+      <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" t="b">
-        <v>0</v>
-      </c>
-      <c r="C13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" t="s">
-        <v>4</v>
-      </c>
-      <c r="E13" t="s">
-        <v>3</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14">
+      <c r="B13" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="58" x14ac:dyDescent="0.35">
+      <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" t="b">
-        <v>0</v>
-      </c>
-      <c r="C14" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" t="s">
-        <v>4</v>
-      </c>
-      <c r="E14" t="s">
-        <v>3</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A15">
+      <c r="B14" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="58" x14ac:dyDescent="0.35">
+      <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" t="b">
-        <v>0</v>
-      </c>
-      <c r="C15" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" t="s">
-        <v>4</v>
-      </c>
-      <c r="E15" t="s">
-        <v>3</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A16">
+      <c r="B15" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="58" x14ac:dyDescent="0.35">
+      <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" t="b">
-        <v>0</v>
-      </c>
-      <c r="C16" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16" t="s">
-        <v>4</v>
-      </c>
-      <c r="E16" t="s">
-        <v>3</v>
-      </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A17">
+      <c r="B16" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="58" x14ac:dyDescent="0.35">
+      <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" t="b">
-        <v>0</v>
-      </c>
-      <c r="C17" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17" t="s">
-        <v>4</v>
-      </c>
-      <c r="E17" t="s">
-        <v>3</v>
-      </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A18">
+      <c r="B17" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="58" x14ac:dyDescent="0.35">
+      <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18" t="b">
-        <v>0</v>
-      </c>
-      <c r="C18" t="s">
-        <v>8</v>
-      </c>
-      <c r="D18" t="s">
-        <v>4</v>
-      </c>
-      <c r="E18" t="s">
-        <v>3</v>
-      </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A19">
+      <c r="B18" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="58" x14ac:dyDescent="0.35">
+      <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="B19" t="b">
-        <v>0</v>
-      </c>
-      <c r="C19" t="s">
-        <v>8</v>
-      </c>
-      <c r="D19" t="s">
-        <v>4</v>
-      </c>
-      <c r="E19" t="s">
-        <v>3</v>
-      </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A20">
+      <c r="B19" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="58" x14ac:dyDescent="0.35">
+      <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="B20" t="b">
-        <v>0</v>
-      </c>
-      <c r="C20" t="s">
-        <v>8</v>
-      </c>
-      <c r="D20" t="s">
-        <v>4</v>
-      </c>
-      <c r="E20" t="s">
-        <v>3</v>
-      </c>
-      <c r="F20">
-        <v>0</v>
+      <c r="B20" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
